--- a/experiments/evaluation/llm-seed/bert-base-cased_15/original_remove/rem3/17/word_level_predictions_17.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/original_remove/rem3/17/word_level_predictions_17.xlsx
@@ -1201,7 +1201,7 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>B-NonEvent</t>
         </is>
       </c>
       <c r="G15" s="2" t="b">
@@ -1225,7 +1225,7 @@
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Tag_B_as_I</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -1617,7 +1617,7 @@
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G23" s="2" t="b">
@@ -1641,7 +1641,7 @@
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -1721,7 +1721,7 @@
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G25" s="2" t="b">
@@ -1745,7 +1745,7 @@
       </c>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -1773,7 +1773,7 @@
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>E-NonEvent</t>
         </is>
       </c>
       <c r="G26" s="2" t="b">
@@ -1797,7 +1797,7 @@
       </c>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Tag_I_as_E</t>
         </is>
       </c>
     </row>
@@ -2449,237 +2449,237 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G39" t="b">
+        <v>1</v>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I39" t="b">
+        <v>1</v>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K39" t="b">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_E_as_I</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>2</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Capture Failed The aircraft is moving Cannot shoot panorama .</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>The</t>
+        </is>
+      </c>
+      <c r="D40" t="n">
+        <v>2</v>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>B-Event</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G40" t="b">
+        <v>1</v>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I40" t="b">
+        <v>1</v>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K40" t="b">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_B_as_I</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>2</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Capture Failed The aircraft is moving Cannot shoot panorama .</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>aircraft</t>
+        </is>
+      </c>
+      <c r="D41" t="n">
+        <v>3</v>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G41" t="b">
+        <v>1</v>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I41" t="b">
+        <v>1</v>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K41" t="b">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>2</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Capture Failed The aircraft is moving Cannot shoot panorama .</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>is</t>
+        </is>
+      </c>
+      <c r="D42" t="n">
+        <v>4</v>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G42" t="b">
+        <v>1</v>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I42" t="b">
+        <v>1</v>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K42" t="b">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>2</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Capture Failed The aircraft is moving Cannot shoot panorama .</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>moving</t>
+        </is>
+      </c>
+      <c r="D43" t="n">
+        <v>5</v>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="G39" t="b">
-        <v>1</v>
-      </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I39" t="b">
-        <v>1</v>
-      </c>
-      <c r="J39" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K39" t="b">
-        <v>1</v>
-      </c>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B40" s="2" t="inlineStr">
-        <is>
-          <t>Capture Failed The aircraft is moving Cannot shoot panorama .</t>
-        </is>
-      </c>
-      <c r="C40" s="2" t="inlineStr">
-        <is>
-          <t>The</t>
-        </is>
-      </c>
-      <c r="D40" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="E40" s="2" t="inlineStr">
-        <is>
-          <t>B-Event</t>
-        </is>
-      </c>
-      <c r="F40" s="2" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-      <c r="G40" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H40" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I40" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J40" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K40" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L40" s="2" t="inlineStr">
-        <is>
-          <t>Missed_B-Event</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B41" s="2" t="inlineStr">
-        <is>
-          <t>Capture Failed The aircraft is moving Cannot shoot panorama .</t>
-        </is>
-      </c>
-      <c r="C41" s="2" t="inlineStr">
-        <is>
-          <t>aircraft</t>
-        </is>
-      </c>
-      <c r="D41" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="E41" s="2" t="inlineStr">
+      <c r="F43" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F41" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G41" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H41" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I41" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J41" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K41" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L41" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B42" s="2" t="inlineStr">
-        <is>
-          <t>Capture Failed The aircraft is moving Cannot shoot panorama .</t>
-        </is>
-      </c>
-      <c r="C42" s="2" t="inlineStr">
-        <is>
-          <t>is</t>
-        </is>
-      </c>
-      <c r="D42" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="E42" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F42" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G42" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H42" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I42" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J42" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K42" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L42" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B43" s="2" t="inlineStr">
-        <is>
-          <t>Capture Failed The aircraft is moving Cannot shoot panorama .</t>
-        </is>
-      </c>
-      <c r="C43" s="2" t="inlineStr">
-        <is>
-          <t>moving</t>
-        </is>
-      </c>
-      <c r="D43" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="E43" s="2" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="F43" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G43" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H43" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I43" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J43" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K43" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L43" s="2" t="inlineStr">
+      <c r="G43" t="b">
+        <v>1</v>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I43" t="b">
+        <v>1</v>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K43" t="b">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr">
         <is>
           <t>Wrong_Tag_E_as_I</t>
         </is>
@@ -2709,7 +2709,7 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>B-Event</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G44" t="b">
@@ -2733,7 +2733,7 @@
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Tag_B_as_I</t>
         </is>
       </c>
     </row>

--- a/experiments/evaluation/llm-seed/bert-base-cased_15/original_remove/rem3/17/word_level_predictions_17.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/original_remove/rem3/17/word_level_predictions_17.xlsx
@@ -1201,7 +1201,7 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>B-NonEvent</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G15" s="2" t="b">
@@ -1225,7 +1225,7 @@
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Tag_B_as_I</t>
         </is>
       </c>
     </row>
@@ -1617,7 +1617,7 @@
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G23" s="2" t="b">
@@ -1641,7 +1641,7 @@
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -1721,7 +1721,7 @@
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G25" s="2" t="b">
@@ -1745,7 +1745,7 @@
       </c>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -1773,7 +1773,7 @@
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>E-NonEvent</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G26" s="2" t="b">
@@ -1797,7 +1797,7 @@
       </c>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Tag_I_as_E</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -2449,237 +2449,237 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G39" t="b">
+        <v>1</v>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I39" t="b">
+        <v>1</v>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K39" t="b">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B40" s="2" t="inlineStr">
+        <is>
+          <t>Capture Failed The aircraft is moving Cannot shoot panorama .</t>
+        </is>
+      </c>
+      <c r="C40" s="2" t="inlineStr">
+        <is>
+          <t>The</t>
+        </is>
+      </c>
+      <c r="D40" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E40" s="2" t="inlineStr">
+        <is>
+          <t>B-Event</t>
+        </is>
+      </c>
+      <c r="F40" s="2" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="G40" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H40" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I40" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J40" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K40" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L40" s="2" t="inlineStr">
+        <is>
+          <t>Missed_B-Event</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B41" s="2" t="inlineStr">
+        <is>
+          <t>Capture Failed The aircraft is moving Cannot shoot panorama .</t>
+        </is>
+      </c>
+      <c r="C41" s="2" t="inlineStr">
+        <is>
+          <t>aircraft</t>
+        </is>
+      </c>
+      <c r="D41" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="E41" s="2" t="inlineStr">
+        <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G39" t="b">
-        <v>1</v>
-      </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I39" t="b">
-        <v>1</v>
-      </c>
-      <c r="J39" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K39" t="b">
-        <v>1</v>
-      </c>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_E_as_I</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="n">
+      <c r="F41" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G41" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H41" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I41" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J41" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K41" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L41" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="B40" t="inlineStr">
+      <c r="B42" s="2" t="inlineStr">
         <is>
           <t>Capture Failed The aircraft is moving Cannot shoot panorama .</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>The</t>
-        </is>
-      </c>
-      <c r="D40" t="n">
+      <c r="C42" s="2" t="inlineStr">
+        <is>
+          <t>is</t>
+        </is>
+      </c>
+      <c r="D42" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="E42" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F42" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G42" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H42" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I42" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J42" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K42" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L42" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>B-Event</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
+      <c r="B43" s="2" t="inlineStr">
+        <is>
+          <t>Capture Failed The aircraft is moving Cannot shoot panorama .</t>
+        </is>
+      </c>
+      <c r="C43" s="2" t="inlineStr">
+        <is>
+          <t>moving</t>
+        </is>
+      </c>
+      <c r="D43" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="E43" s="2" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="F43" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G40" t="b">
-        <v>1</v>
-      </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I40" t="b">
-        <v>1</v>
-      </c>
-      <c r="J40" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K40" t="b">
-        <v>1</v>
-      </c>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_B_as_I</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="n">
-        <v>2</v>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>Capture Failed The aircraft is moving Cannot shoot panorama .</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>aircraft</t>
-        </is>
-      </c>
-      <c r="D41" t="n">
-        <v>3</v>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G41" t="b">
-        <v>1</v>
-      </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I41" t="b">
-        <v>1</v>
-      </c>
-      <c r="J41" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K41" t="b">
-        <v>1</v>
-      </c>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="n">
-        <v>2</v>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>Capture Failed The aircraft is moving Cannot shoot panorama .</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>is</t>
-        </is>
-      </c>
-      <c r="D42" t="n">
-        <v>4</v>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G42" t="b">
-        <v>1</v>
-      </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I42" t="b">
-        <v>1</v>
-      </c>
-      <c r="J42" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K42" t="b">
-        <v>1</v>
-      </c>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="n">
-        <v>2</v>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>Capture Failed The aircraft is moving Cannot shoot panorama .</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>moving</t>
-        </is>
-      </c>
-      <c r="D43" t="n">
-        <v>5</v>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G43" t="b">
-        <v>1</v>
-      </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I43" t="b">
-        <v>1</v>
-      </c>
-      <c r="J43" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K43" t="b">
-        <v>1</v>
-      </c>
-      <c r="L43" t="inlineStr">
+      <c r="G43" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H43" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I43" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J43" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K43" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L43" s="2" t="inlineStr">
         <is>
           <t>Wrong_Tag_E_as_I</t>
         </is>
@@ -2709,7 +2709,7 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>B-Event</t>
         </is>
       </c>
       <c r="G44" t="b">
@@ -2733,7 +2733,7 @@
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>Wrong_Tag_B_as_I</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
